--- a/Melkban.xlsx
+++ b/Melkban.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Agent" sheetId="1" r:id="rId1"/>
     <sheet name="Contact" sheetId="2" r:id="rId2"/>
     <sheet name="Know" sheetId="3" r:id="rId3"/>
     <sheet name="News" sheetId="4" r:id="rId4"/>
+    <sheet name="Case" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>URL</t>
   </si>
@@ -424,6 +425,140 @@
    "sort":null,
    "first":false,
    "numberOfElements":20
+}</t>
+  </si>
+  <si>
+    <t>اخبار</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Case </t>
+  </si>
+  <si>
+    <t>main/case/{id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  {  
+   "intDayOn":6391.0,
+   "caseSide":{  
+      "fID":107.0,
+      "name":"دوکله"
+   },
+   "nama":{  
+      "fID":87.0,
+      "namaName":"------"
+   },
+   "area":{  
+      "idArea":229.0,
+      "idCity":207.0,
+      "nameArea":"همه مناطق"
+   },
+   "range":{  
+      "idRange":528.0,
+      "nameRange":"در میان همه بگرد",
+      "idArea":"229"
+   },
+   "kindRequest":{  
+      "idKindRequest":1.0,
+      "nameKindRequest":"خرید"
+   },
+   "roof":{  
+      "fID":15.0,
+      "nameRoof":"سراميک"
+   },
+   "kitchen":{  
+      "fID":25.0,
+      "kitchenName":"باز"
+   },
+   "windows":{  
+      "fID":35.0,
+      "windowsName":"يو پي وي سي"
+   },
+   "service":{  
+      "fID":40.0,
+      "serviceName":"ايراني"
+   },
+   "city":{  
+      "idCity":207.0,
+      "nameCity":"رباط کریم",
+      "idState":1.0
+   },
+   "state":{  
+      "nameState":"تهران",
+      "idState":1.0
+   },
+   "systemS":{  
+      "fID":87.0,
+      "systemSName":"------"
+   },
+   "systemG":{  
+      "fID":87.0,
+      "systemGName":"------"
+   },
+   "cabinet":{  
+      "fID":30.0,
+      "cabinetName":"ام دي اف"
+   },
+   "url":null,
+   "id":312092.0,
+   "comment":"",
+   "views":1.0,
+   "pool":false,
+   "idCase":3.1027312092E10,
+   "metraj":0.0,
+   "price1":3.0E7,
+   "price2":0.0,
+   "countFloor":3.0,
+   "floor":"1",
+   "countUnit":6.0,
+   "unit":"1",
+   "countBed":2.0,
+   "parking":false,
+   "storage":false,
+   "elevator":false,
+   "gas":false,
+   "furned":false,
+   "point":1,
+   "countPoint":1,
+   "thPic1":"",
+   "pic3":"",
+   "pic4":"",
+   "pic5":"",
+   "pic6":"",
+   "pic7":"",
+   "pic8":"",
+   "pic9":"",
+   "age":"0",
+   "confine":"پرند",
+   "iphone":false,
+   "door":false,
+   "dateIn":"1396/3/15",
+   "visitorCount":1.0,
+   "masahat":87.0,
+   "sona":false,
+   "shooting":false,
+   "fire":false,
+   "loby":false,
+   "pele":false,
+   "camera":false,
+   "tel":false,
+   "anten":false,
+   "pasio":false,
+   "takhlie":true,
+   "negahban":false,
+   "shomineh":false,
+   "lat":35.684239,
+   "lon":51.482656,
+   "kindCase":{  
+      "idKindCase":1.0,
+      "nameKindCase":"مسکوني (آپارتمان)"
+   },
+   "idAgency":"0000",
+   "pic1":"",
+   "pic2":""
 }</t>
   </si>
 </sst>
@@ -886,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1352,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1502,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1429,6 +1564,103 @@
       </c>
       <c r="F4" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="6" max="6" width="86.1640625" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H4">
         <v>200</v>

--- a/Melkban.xlsx
+++ b/Melkban.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>URL</t>
   </si>
@@ -376,13 +376,7 @@
     <t>List Know</t>
   </si>
   <si>
-    <t>/main/know/list?page=1&amp;limit=5</t>
-  </si>
-  <si>
     <t>List News</t>
-  </si>
-  <si>
-    <t>main/news/list?page=1&amp;limit=2</t>
   </si>
   <si>
     <t>{  
@@ -560,6 +554,168 @@
    "pic1":"",
    "pic2":""
 }</t>
+  </si>
+  <si>
+    <t>Get Case List</t>
+  </si>
+  <si>
+    <t>/main/case/list/{inputString}</t>
+  </si>
+  <si>
+    <t>main/news/list?page=1&amp;size=2</t>
+  </si>
+  <si>
+    <t>/main/know/list?page=1&amp;size=2</t>
+  </si>
+  <si>
+    <t>{  
+   "content":[  
+      {  
+         "intDayOn":5616.0,
+         "kindRequest":{  
+            "idKindRequest":3.0,
+            "nameKindRequest":"رهن و اجاره "
+         },
+         "area":{  
+            "idCity":1.0,
+            "idArea":1.0,
+            "nameArea":"منطقه یك"
+         },
+         "range":{  
+            "idArea":1.0,
+            "idRange":17.0,
+            "nameRange":"فرمانیه"
+         },
+         "city":{  
+            "idstate":1.0,
+            "idCity":1.0,
+            "nameCity":"تهران"
+         },
+         "state":{  
+            "idState":1.0,
+            "nameState":"تهران"
+         },
+         "roof":{  
+            "fID":16.0,
+            "nameRoof":"سنگ"
+         },
+         "nama":{  
+            "fID":81.0,
+            "namaName":"سنگ"
+         },
+         "cabinet":{  
+            "fID":30.0,
+            "cabinetName":"ام دي اف"
+         },
+         "id":5991.0,
+         "kindCase":{  
+            "idKindCase":1.0,
+            "nameKindCase":"مسکوني (آپارتمان)"
+         },
+         "pool":false,
+         "idCase":5991.0,
+         "floor":"0",
+         "metraj":150.0,
+         "price1":8.0E7,
+         "price2":4500000.0,
+         "countBed":2.0,
+         "pic1":"",
+         "thPic1":"",
+         "age":"",
+         "gas":false,
+         "elevator":true,
+         "confine":"خ بوستان ",
+         "furned":false,
+         "parking":true,
+         "negahban":false,
+         "shomineh":true,
+         "door":true,
+         "iphone":true,
+         "pasio":false,
+         "storage":true,
+         "dateIn":"1394/2/16"
+      },
+      {  
+         "intDayOn":5621.0,
+         "kindRequest":{  
+            "idKindRequest":1.0,
+            "nameKindRequest":"خرید"
+         },
+         "area":{  
+            "idCity":1.0,
+            "idArea":2.0,
+            "nameArea":"منطقه دو"
+         },
+         "range":{  
+            "idArea":2.0,
+            "idRange":1.0,
+            "nameRange":"سعادت آباد"
+         },
+         "city":{  
+            "idstate":1.0,
+            "idCity":1.0,
+            "nameCity":"تهران"
+         },
+         "state":{  
+            "idState":1.0,
+            "nameState":"تهران"
+         },
+         "roof":{  
+            "fID":16.0,
+            "nameRoof":"سنگ"
+         },
+         "nama":{  
+            "fID":81.0,
+            "namaName":"سنگ"
+         },
+         "cabinet":{  
+            "fID":30.0,
+            "cabinetName":"ام دي اف"
+         },
+         "id":6417.0,
+         "kindCase":{  
+            "idKindCase":1.0,
+            "nameKindCase":"مسکوني (آپارتمان)"
+         },
+         "pool":false,
+         "idCase":6417.0,
+         "floor":"3",
+         "metraj":133.0,
+         "price1":7.581E8,
+         "price2":0.0,
+         "countBed":3.0,
+         "pic1":"",
+         "thPic1":"",
+         "age":"7",
+         "gas":false,
+         "elevator":true,
+         "confine":"صحراي شمالي ",
+         "furned":false,
+         "parking":true,
+         "negahban":false,
+         "shomineh":false,
+         "door":true,
+         "iphone":true,
+         "pasio":false,
+         "storage":true,
+         "dateIn":"1394/2/21"
+      }
+   ],
+   "last":false,
+   "totalElements":51417,
+   "totalPages":25709,
+   "size":2,
+   "number":1,
+   "sort":null,
+   "first":false,
+   "numberOfElements":2
+}</t>
+  </si>
+  <si>
+    <t>main/case/list/خرید-اتاق-تهران-تهران-منطقه+دو?page=1&amp;size=2</t>
+  </si>
+  <si>
+    <t>Example</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1386,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1459,13 +1615,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -1488,13 +1644,13 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="A1:H3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="53.33203125" customWidth="1"/>
     <col min="8" max="8" width="27.83203125" customWidth="1"/>
@@ -1502,7 +1658,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1554,16 +1710,16 @@
     </row>
     <row r="4" spans="1:8" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -1582,24 +1738,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="6" max="6" width="86.1640625" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="86.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1608,8 +1765,9 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1619,59 +1777,83 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="I4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4">
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Melkban.xlsx
+++ b/Melkban.xlsx
@@ -557,9 +557,6 @@
   </si>
   <si>
     <t>Get Case List</t>
-  </si>
-  <si>
-    <t>/main/case/list/{inputString}</t>
   </si>
   <si>
     <t>main/news/list?page=1&amp;size=2</t>
@@ -712,10 +709,40 @@
 }</t>
   </si>
   <si>
-    <t>main/case/list/خرید-اتاق-تهران-تهران-منطقه+دو?page=1&amp;size=2</t>
-  </si>
-  <si>
     <t>Example</t>
+  </si>
+  <si>
+    <t>/main/case/melksearch</t>
+  </si>
+  <si>
+    <t>{
+"searchPlace": "تهران-تهران",
+"roof": null,
+"cabinet": null,
+"nama": null,
+"kindRequest": "خرید",
+"kindCase": "اتاق",
+"pool": false,
+"elevator": false,
+"parking": false,
+"negahban": false,
+"door": false,
+"iphone": false,
+"pasio": false,
+"storage": false,
+"fromMetraj": null,
+"tillMetraj": null,
+"fromPrice1": null,
+"tillPrice1": null,
+"fromPrice2": null,
+"tillPrice2": null,
+"fromAge": null,
+"tillAge": null,
+"fromCountbed": null,
+"tillCountbed": null,
+"withPicture": false,
+"recently": false
+}</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1642,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1713,7 +1740,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1741,7 +1768,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1833,16 +1860,16 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5">
         <v>200</v>

--- a/Melkban.xlsx
+++ b/Melkban.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Agent" sheetId="1" r:id="rId1"/>
     <sheet name="Contact" sheetId="2" r:id="rId2"/>
     <sheet name="Know" sheetId="3" r:id="rId3"/>
     <sheet name="News" sheetId="4" r:id="rId4"/>
-    <sheet name="Case" sheetId="5" r:id="rId5"/>
+    <sheet name="Melkoffer" sheetId="5" r:id="rId5"/>
+    <sheet name="MelkSearch" sheetId="7" r:id="rId6"/>
+    <sheet name="CompareCase" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
   <si>
     <t>URL</t>
   </si>
@@ -429,9 +431,6 @@
   </si>
   <si>
     <t xml:space="preserve">Get Case </t>
-  </si>
-  <si>
-    <t>main/case/{id}</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -743,6 +742,158 @@
 "withPicture": false,
 "recently": false
 }</t>
+  </si>
+  <si>
+    <t>مقایسه</t>
+  </si>
+  <si>
+    <t>List Compare</t>
+  </si>
+  <si>
+    <t>/main/compare/{idF}/{idS}/{idT}</t>
+  </si>
+  <si>
+    <t>[  
+   {  
+      "id":308366.0,
+      "intdayon":6256.0,
+      "kindRequest":{  
+         "idKindRequest":1.0,
+         "nameKindRequest":"خرید"
+      },
+      "area":{  
+         "idCity":1.0,
+         "idArea":3.0,
+         "nameArea":"منطقه سه"
+      },
+      "range":{  
+         "idArea":3.0,
+         "idRange":41.0,
+         "nameRange":"سیدخندان"
+      },
+      "city":{  
+         "idstate":1.0,
+         "idCity":1.0,
+         "nameCity":"تهران"
+      },
+      "state":{  
+         "idState":1.0,
+         "nameState":"تهران"
+      },
+      "roof":{  
+         "fID":18.0,
+         "nameRoof":"پارکت"
+      },
+      "nama":{  
+         "fID":81.0,
+         "namaName":"سنگ"
+      },
+      "cabinet":{  
+         "fID":30.0,
+         "cabinetName":"ام دي اف"
+      },
+      "pool":false,
+      "kindCase":{  
+         "idKindCase":1.0,
+         "nameKindCase":"مسکوني (آپارتمان)"
+      },
+      "negahban":false,
+      "door":false,
+      "parking":true,
+      "elevator":true,
+      "iphone":true,
+      "pasio":false,
+      "storage":true,
+      "idCase":3.4465308366E10,
+      "floor":"",
+      "metraj":125.0,
+      "price1":6.9E8,
+      "price2":null,
+      "countBed":2.0,
+      "pic1":"http://melkban24.ir/resources/Files/AdminAdver134465308366.jpg",
+      "thPic1":"/resources/Files/th-AdminAdver134465308366.jpg",
+      "age":"",
+      "gas":false,
+      "confine":"خواجه عبداله ",
+      "furned":false,
+      "shomineh":false,
+      "dateIn":"1395/11/2"
+   },
+   {  
+      "id":308346.0,
+      "intdayon":6254.0,
+      "kindRequest":{  
+         "idKindRequest":1.0,
+         "nameKindRequest":"خرید"
+      },
+      "area":{  
+         "idCity":1.0,
+         "idArea":3.0,
+         "nameArea":"منطقه سه"
+      },
+      "range":{  
+         "idArea":3.0,
+         "idRange":41.0,
+         "nameRange":"سیدخندان"
+      },
+      "city":{  
+         "idstate":1.0,
+         "idCity":1.0,
+         "nameCity":"تهران"
+      },
+      "state":{  
+         "idState":1.0,
+         "nameState":"تهران"
+      },
+      "roof":{  
+         "fID":15.0,
+         "nameRoof":"سراميک"
+      },
+      "nama":{  
+         "fID":81.0,
+         "namaName":"سنگ"
+      },
+      "cabinet":{  
+         "fID":30.0,
+         "cabinetName":"ام دي اف"
+      },
+      "pool":false,
+      "kindCase":{  
+         "idKindCase":1.0,
+         "nameKindCase":"مسکوني (آپارتمان)"
+      },
+      "negahban":false,
+      "door":false,
+      "parking":true,
+      "elevator":false,
+      "iphone":true,
+      "pasio":false,
+      "storage":true,
+      "idCase":9.9958308346E10,
+      "floor":"",
+      "metraj":78.0,
+      "price1":4.45E8,
+      "price2":null,
+      "countBed":2.0,
+      "pic1":"http://melkban24.ir/resources/Files/AdminAdver199958308346.jpg",
+      "thPic1":"/resources/Files/th-AdminAdver199958308346.jpg",
+      "age":"",
+      "gas":true,
+      "confine":"روبروی پارک کوروش",
+      "furned":false,
+      "shomineh":false,
+      "dateIn":"1395/10/30"
+   }
+]</t>
+  </si>
+  <si>
+    <t>/main/compare/{idF}/{idS}</t>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <t>main/melkoffer/{id}</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1399,7 +1550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1642,7 +1793,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1671,7 +1822,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1740,7 +1891,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1765,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1817,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1843,35 +1994,15 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="409" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5">
         <v>200</v>
       </c>
     </row>
@@ -1884,4 +2015,219 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="47.33203125" customWidth="1"/>
+    <col min="7" max="7" width="41.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Melkban.xlsx
+++ b/Melkban.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Agent" sheetId="1" r:id="rId1"/>
@@ -1355,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1918,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2014,6 +2014,7 @@
     <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2022,7 +2023,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Melkban.xlsx
+++ b/Melkban.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Agent" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Melkoffer" sheetId="5" r:id="rId5"/>
     <sheet name="MelkSearch" sheetId="7" r:id="rId6"/>
     <sheet name="CompareCase" sheetId="6" r:id="rId7"/>
+    <sheet name="NearByLocation" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
   <si>
     <t>URL</t>
   </si>
@@ -894,6 +895,138 @@
   </si>
   <si>
     <t>main/melkoffer/{id}</t>
+  </si>
+  <si>
+    <t>near by location</t>
+  </si>
+  <si>
+    <t>/main/nearmelk/{lat}/{lon}</t>
+  </si>
+  <si>
+    <t>{  
+   "content":[  
+      {  
+         "idcase":1.05530848E9,
+         "dateIn":"1395/11/5",
+         "lat":35.799816,
+         "lon":50.968418,
+         "id":308480.0
+      },
+      {  
+         "idcase":5.814312025E9,
+         "dateIn":"1396/3/10",
+         "lat":35.809496,
+         "lon":51.004361,
+         "id":312025.0
+      },
+      {  
+         "idcase":2.1301307408E10,
+         "dateIn":"1395/9/28",
+         "lat":35.779934,
+         "lon":50.999059,
+         "id":307408.0
+      },
+      {  
+         "idcase":3.5488307409E10,
+         "dateIn":"1395/9/28",
+         "lat":35.756112,
+         "lon":51.018672,
+         "id":307409.0
+      },
+      {  
+         "idcase":4.0800308584E10,
+         "dateIn":"1395/11/10",
+         "lat":35.744618,
+         "lon":50.992633,
+         "id":308584.0
+      },
+      {  
+         "idcase":4.8563306907E10,
+         "dateIn":"1395/9/9",
+         "lat":35.791718,
+         "lon":50.983086,
+         "id":306907.0
+      },
+      {  
+         "idcase":6.1130308998E10,
+         "dateIn":"1395/11/21",
+         "lat":35.744544,
+         "lon":50.992654,
+         "id":308998.0
+      },
+      {  
+         "idcase":6.2117308725E10,
+         "dateIn":"1395/11/14",
+         "lat":35.800799,
+         "lon":50.996892,
+         "id":308725.0
+      },
+      {  
+         "idcase":6.2970308912E10,
+         "dateIn":"1395/11/19",
+         "lat":35.76026,
+         "lon":51.011741,
+         "id":308912.0
+      },
+      {  
+         "idcase":6.6400306195E10,
+         "dateIn":"1395/8/10",
+         "lat":35.752964,
+         "lon":50.998052,
+         "id":306195.0
+      },
+      {  
+         "idcase":6.980430859E10,
+         "dateIn":"1395/11/10",
+         "lat":35.783581,
+         "lon":51.006646,
+         "id":308590.0
+      },
+      {  
+         "idcase":7.095030802E10,
+         "dateIn":"1395/10/19",
+         "lat":35.773436,
+         "lon":50.98067,
+         "id":308020.0
+      },
+      {  
+         "idcase":7.4597311859E10,
+         "dateIn":"1396/3/6",
+         "lat":35.755468,
+         "lon":51.008095,
+         "id":311859.0
+      },
+      {  
+         "idcase":8.284830783E10,
+         "dateIn":"1395/10/12",
+         "lat":35.809948,
+         "lon":50.987065,
+         "id":307830.0
+      },
+      {  
+         "idcase":9.6342309176E10,
+         "dateIn":"1395/11/26",
+         "lat":35.744074,
+         "lon":50.992349,
+         "id":309176.0
+      },
+      {  
+         "idcase":9.7424307601E10,
+         "dateIn":"1395/10/4",
+         "lat":35.802122,
+         "lon":50.993877,
+         "id":307601.0
+      }
+   ],
+   "totalPages":1,
+   "totalElements":16,
+   "last":true,
+   "numberOfElements":16,
+   "sort":null,
+   "first":true,
+   "size":20,
+   "number":0
+}</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1550,7 +1683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1720,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1918,7 +2051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -2125,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2231,4 +2364,86 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>